--- a/biology/Zoologie/Caymanostellidae/Caymanostellidae.xlsx
+++ b/biology/Zoologie/Caymanostellidae/Caymanostellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caymanostellidae sont une famille d'étoiles de mer (Asteroidea) de l'ordre des Velatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Caymanostellidae a été créée en 1974 par le zoologiste et océanologue russe Gueorgui Mikhaïlovitch Belyaev (d) (1913-1994), basé sur 13 spécimens collectés entre 6740 et 6780 mètres de profondeur dans la mer des Caraïbes.
 </t>
@@ -542,9 +556,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille comporte des individus petits (diamètre maximum de 3 centimètres) à symétrie pentagonale ou sub-pentagonale et dont la morphologie diffère de toutes autres familles Asteroidea[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille comporte des individus petits (diamètre maximum de 3 centimètres) à symétrie pentagonale ou sub-pentagonale et dont la morphologie diffère de toutes autres familles Asteroidea.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (30 mai 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (30 mai 2014) :
 genre Belyaevostella Rowe, 1989
 Belyaevostella hispida (Aziz &amp; Jangoux, 1984)
 Belyaevostella hyugaensis Fujita, Stampanato &amp; Jangoux, 1994
